--- a/Pedido4.xlsx
+++ b/Pedido4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Orbit\Unir_Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\giit\Concatenate_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D8C6A9-C5C1-4E7C-84C4-42EF456A47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F9A45-13C6-4D39-9968-6D4EF609A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EC15FEB-3287-4EC4-9739-7A9F6B662DAF}"/>
   </bookViews>
@@ -449,15 +449,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
